--- a/Analyzed/try6/data_2011.xlsx
+++ b/Analyzed/try6/data_2011.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>60.24149344312383</v>
       </c>
       <c r="N2">
-        <v>287.672</v>
+        <v>652.456</v>
       </c>
       <c r="O2">
-        <v>1061.96</v>
+        <v>-88.04000000000001</v>
       </c>
       <c r="P2">
-        <v>435.951612</v>
+        <v>333.6441770550104</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -574,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>4</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -593,6 +598,9 @@
       </c>
       <c r="AC2">
         <v>4</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>73.04972213466385</v>
       </c>
       <c r="N3">
-        <v>378.224</v>
+        <v>764.456</v>
       </c>
       <c r="O3">
-        <v>1215.82</v>
+        <v>-84.18000000000001</v>
       </c>
       <c r="P3">
-        <v>402.813</v>
+        <v>301.5953803985024</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -671,19 +679,22 @@
         <v>5</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB3">
         <v>2</v>
       </c>
       <c r="AC3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>58.76125709021301</v>
       </c>
       <c r="N4">
-        <v>151.62</v>
+        <v>351.5120000000001</v>
       </c>
       <c r="O4">
-        <v>889.62</v>
+        <v>-110.38</v>
       </c>
       <c r="P4">
-        <v>504.5384591999999</v>
+        <v>415.6858682439552</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -756,25 +767,28 @@
         <v>6</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4">
         <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>62.48720796349385</v>
       </c>
       <c r="N5">
-        <v>245.728</v>
+        <v>491.4560000000001</v>
       </c>
       <c r="O5">
-        <v>1006.43</v>
+        <v>-93.56999999999999</v>
       </c>
       <c r="P5">
-        <v>459.8764848</v>
+        <v>360.2764659997097</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,16 +858,16 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -866,6 +880,9 @@
       </c>
       <c r="AC5">
         <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>55.48946619751693</v>
       </c>
       <c r="N6">
-        <v>158.032</v>
+        <v>360.528</v>
       </c>
       <c r="O6">
-        <v>1114.66</v>
+        <v>-135.34</v>
       </c>
       <c r="P6">
-        <v>449.4494736</v>
+        <v>349.0395799918552</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -947,16 +964,19 @@
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>65.51178204157729</v>
       </c>
       <c r="N7">
-        <v>220.388</v>
+        <v>496.16</v>
       </c>
       <c r="O7">
-        <v>1097.83</v>
+        <v>-102.17</v>
       </c>
       <c r="P7">
-        <v>561.4642655999999</v>
+        <v>470.6852573312942</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>5</v>
@@ -1044,10 +1064,13 @@
         <v>5</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>4</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>65.83924156698069</v>
       </c>
       <c r="N8">
-        <v>156.38</v>
+        <v>376.768</v>
       </c>
       <c r="O8">
-        <v>1028.09</v>
+        <v>-121.91</v>
       </c>
       <c r="P8">
-        <v>427.3287624</v>
+        <v>308.1625840747033</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -1117,28 +1140,31 @@
         <v>3</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8">
         <v>2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>75.08528648231544</v>
       </c>
       <c r="N9">
-        <v>184.996</v>
+        <v>447.888</v>
       </c>
       <c r="O9">
-        <v>1034.56</v>
+        <v>-115.44</v>
       </c>
       <c r="P9">
-        <v>405.4451328</v>
+        <v>304.482277837788</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1211,25 +1237,28 @@
         <v>3</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9">
         <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
